--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/10/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.206</v>
+        <v>-21.986</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.324</v>
+        <v>-8.353</v>
       </c>
     </row>
     <row r="19">
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.028</v>
+        <v>-20.05</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.636</v>
+        <v>-20.596</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.534</v>
+        <v>-12.218</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.666</v>
+        <v>-21.731</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.286</v>
+        <v>-13.049</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.682</v>
+        <v>-12.732</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.6</v>
+        <v>-12.967</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.11</v>
+        <v>-11.175</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-12.654</v>
+        <v>-12.517</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.186</v>
+        <v>-8.242000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.048</v>
+        <v>-11.196</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.258</v>
+        <v>-22.029</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-12.692</v>
+        <v>-12.475</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.682</v>
+        <v>-12.857</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.406000000000001</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="56">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.356</v>
+        <v>-22.247</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.27</v>
+        <v>-22.31</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-8.084</v>
+        <v>-7.628</v>
       </c>
     </row>
     <row r="65">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.57</v>
+        <v>-21.484</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.348</v>
+        <v>-11.595</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.464</v>
+        <v>-21.15</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.07</v>
+        <v>-8.074</v>
       </c>
     </row>
     <row r="81">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.996</v>
+        <v>-21.967</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.288</v>
+        <v>-13.537</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.826</v>
+        <v>-13.708</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1726,12 +1726,12 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.578</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.398</v>
+        <v>-21.508</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.383999999999999</v>
+        <v>-7.537999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.118</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="97">
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.126</v>
+        <v>-12.721</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
